--- a/Assignment2FullMerge.xlsx
+++ b/Assignment2FullMerge.xlsx
@@ -8,22 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devandesai/Documents/GitHub/Econ-Data-Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49EF2932-F807-0B4A-BCFD-0406CA75A485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB07FF5-C494-2240-A61A-A1B9AC098311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{A7E0EE9B-76DD-5046-B225-DFA592A2F484}"/>
   </bookViews>
   <sheets>
-    <sheet name="Quarterly (3)" sheetId="4" r:id="rId1"/>
-    <sheet name="Quarterly (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Quarterly" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Period 3 Regression" sheetId="5" r:id="rId1"/>
+    <sheet name="Merge" sheetId="4" r:id="rId2"/>
+    <sheet name="Quarterly (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Quarterly" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Quarterly!$A$1:$B$313</definedName>
-    <definedName name="ExternalData_2" localSheetId="1" hidden="1">'Quarterly (2)'!$A$1:$B$313</definedName>
-    <definedName name="ExternalData_3" localSheetId="0" hidden="1">'Quarterly (3)'!$A$1:$D$354</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Merge!$F$138:$F$229</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Merge!$F$138:$F$229</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Merge!$F$2:$F$137</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Merge!$F$230:$F$313</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Merge!$F$138:$F$229</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">Quarterly!$A$1:$B$313</definedName>
+    <definedName name="ExternalData_2" localSheetId="2" hidden="1">'Quarterly (2)'!$A$1:$B$313</definedName>
+    <definedName name="ExternalData_3" localSheetId="1" hidden="1">Merge!$A$1:$D$354</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>observation_date</t>
   </si>
@@ -80,13 +86,123 @@
   <si>
     <t>Periods</t>
   </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -102,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,18 +226,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -150,10 +297,2019 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{EFC709DB-68E0-1F47-97A8-082AFD9C6DAF}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F069D0B5-BE13-BB45-87EE-49990A26CCC2}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{7ABBB3FA-7531-FE4A-AED0-78C7EEAEB50F}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Chart 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C8398F-BE3E-0571-129D-B3B0A41ABA87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17824450" y="26028650"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>340784</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>785284</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Chart 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C7702D-443B-7712-FEA2-A670DD956E7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17752484" y="29025851"/>
+              <a:ext cx="4572000" cy="2743199"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182739</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>606073</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Chart 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F579DFEB-664F-DE0B-9F9E-6931DACE823E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17594439" y="31908750"/>
+              <a:ext cx="4550834" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="3" xr16:uid="{9F945C7A-0C80-2E46-80D4-9654D61E8C5A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8" unboundColumnsRight="3">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="4">
+    <queryTableFields count="8">
       <queryTableField id="1" name="observation_date" tableColumnId="1"/>
       <queryTableField id="2" name="PROPINC" tableColumnId="2"/>
       <queryTableField id="3" name="COE" tableColumnId="3"/>
@@ -161,6 +2317,7 @@
       <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
       <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -189,20 +2346,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{114E1BEA-95D1-DE47-9853-30B3C9D906AF}" name="Quarterly__3" displayName="Quarterly__3" ref="A1:G354" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G354" xr:uid="{114E1BEA-95D1-DE47-9853-30B3C9D906AF}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E63437AB-4E23-7C4F-B2B6-83A873785671}" uniqueName="1" name="observation_date" queryTableFieldId="1" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{114E1BEA-95D1-DE47-9853-30B3C9D906AF}" name="Quarterly__3" displayName="Quarterly__3" ref="A1:H354" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H354" xr:uid="{114E1BEA-95D1-DE47-9853-30B3C9D906AF}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E63437AB-4E23-7C4F-B2B6-83A873785671}" uniqueName="1" name="observation_date" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{F8FD07BE-0BF6-7F47-9974-7137D34159A1}" uniqueName="2" name="PROPINC" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{1745DB62-040C-6E42-B39C-58B2DD406CC7}" uniqueName="3" name="COE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{847BDC12-6EA3-3C46-AEA3-EFF337FF7B9A}" uniqueName="4" name="GDI" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{673C9DFE-8D40-C64C-AE02-37735AE20EA4}" uniqueName="5" name="GDI2" queryTableFieldId="5" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{673C9DFE-8D40-C64C-AE02-37735AE20EA4}" uniqueName="5" name="GDI2" queryTableFieldId="5" dataDxfId="2">
       <calculatedColumnFormula>D2 - B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{10DD2DCF-B00E-184F-8BC0-D3AF99D2CEDC}" uniqueName="6" name="LABOR-RATIO" queryTableFieldId="6" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{10DD2DCF-B00E-184F-8BC0-D3AF99D2CEDC}" uniqueName="6" name="LABOR-RATIO" queryTableFieldId="6" dataDxfId="1">
       <calculatedColumnFormula>(C2/E2)*100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{8D74424A-25FF-9948-AC28-8690FB620143}" uniqueName="7" name="Periods" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{4D55B074-3E7F-BC44-B7CD-3EC793673CF2}" uniqueName="8" name="time" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -212,7 +2370,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{331C5C2D-EAC9-E94C-AE86-AD4A509475EE}" name="Quarterly__2" displayName="Quarterly__2" ref="A1:B313" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B313" xr:uid="{331C5C2D-EAC9-E94C-AE86-AD4A509475EE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EFB68993-D54C-5743-8016-259DE6642F2C}" uniqueName="1" name="observation_date" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{EFB68993-D54C-5743-8016-259DE6642F2C}" uniqueName="1" name="observation_date" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{6B46C9E7-0302-2B4D-8D18-CCB99B2CDD84}" uniqueName="2" name="GDI" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -546,11 +2704,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2D1414-D270-C446-9033-D4E6824488BB}">
-  <dimension ref="A1:H354"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024970F7-5EA7-FA41-94B8-9B603A19AFF6}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.61949158384450287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.38376982245417068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.37625482028897761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>19.264692624800901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>18952.47268189922</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18952.47268189922</v>
+      </c>
+      <c r="E12" s="2">
+        <v>51.067160596661346</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.3357091575183822E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2">
+        <v>30432.52731810078</v>
+      </c>
+      <c r="D13" s="2">
+        <v>371.12838192805827</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>83</v>
+      </c>
+      <c r="C14" s="3">
+        <v>49385</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1030.7071122659925</v>
+      </c>
+      <c r="C17" s="2">
+        <v>106.40103024178262</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9.6870031232201743</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.1074914615357079E-15</v>
+      </c>
+      <c r="F17" s="2">
+        <v>819.04156830756483</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1242.3726562244201</v>
+      </c>
+      <c r="H17" s="2">
+        <v>819.04156830756483</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1242.3726562244201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-13.244443320492287</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.8533730922327998</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-7.146129063812193</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3.3357091575184055E-10</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-16.931392806168585</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-9.5574938348159897</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-16.931392806168585</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-9.5574938348159897</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2D1414-D270-C446-9033-D4E6824488BB}">
+  <dimension ref="A1:M354"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,9 +2943,10 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +2968,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>17168</v>
       </c>
@@ -608,8 +2996,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>17258</v>
       </c>
@@ -633,8 +3024,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>17349</v>
       </c>
@@ -658,8 +3052,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>17441</v>
       </c>
@@ -683,8 +3080,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>17533</v>
       </c>
@@ -708,8 +3108,18 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE(F2:F137)</f>
+        <v>61.372914727658113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>17624</v>
       </c>
@@ -733,8 +3143,18 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(F138:F229)</f>
+        <v>60.007844310502328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>17715</v>
       </c>
@@ -758,8 +3178,18 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(F230:F313)</f>
+        <v>57.398192877595108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>17807</v>
       </c>
@@ -783,8 +3213,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>17899</v>
       </c>
@@ -808,8 +3241,18 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f>_xlfn.VAR.S(F2:F313)</f>
+        <v>3.4246819102093253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>17989</v>
       </c>
@@ -833,8 +3276,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>18080</v>
       </c>
@@ -858,8 +3304,21 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <f>CORREL(H2:H136, F2:F136)</f>
+        <v>-4.2534165818301661E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>18172</v>
       </c>
@@ -883,8 +3342,18 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <f>CORREL(H137:H229, F137:F229)</f>
+        <v>0.31907494551429477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>18264</v>
       </c>
@@ -908,8 +3377,18 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <f>CORREL(H230:H313, F230:F313)</f>
+        <v>-0.61949158384450298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18354</v>
       </c>
@@ -933,8 +3412,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>18445</v>
       </c>
@@ -958,8 +3440,11 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>18537</v>
       </c>
@@ -983,8 +3468,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18629</v>
       </c>
@@ -1008,8 +3496,11 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18719</v>
       </c>
@@ -1033,8 +3524,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18810</v>
       </c>
@@ -1058,8 +3552,11 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18902</v>
       </c>
@@ -1083,8 +3580,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>18994</v>
       </c>
@@ -1108,8 +3608,11 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19085</v>
       </c>
@@ -1133,8 +3636,11 @@
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>19176</v>
       </c>
@@ -1158,8 +3664,11 @@
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>19268</v>
       </c>
@@ -1183,8 +3692,11 @@
       <c r="G25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>19360</v>
       </c>
@@ -1208,8 +3720,11 @@
       <c r="G26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>19450</v>
       </c>
@@ -1233,8 +3748,11 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>19541</v>
       </c>
@@ -1258,8 +3776,11 @@
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>19633</v>
       </c>
@@ -1283,8 +3804,11 @@
       <c r="G29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>19725</v>
       </c>
@@ -1308,8 +3832,11 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>19815</v>
       </c>
@@ -1333,8 +3860,11 @@
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>19906</v>
       </c>
@@ -1358,8 +3888,11 @@
       <c r="G32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>19998</v>
       </c>
@@ -1383,8 +3916,11 @@
       <c r="G33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>20090</v>
       </c>
@@ -1408,8 +3944,11 @@
       <c r="G34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>20180</v>
       </c>
@@ -1433,8 +3972,11 @@
       <c r="G35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>20271</v>
       </c>
@@ -1458,8 +4000,11 @@
       <c r="G36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>20363</v>
       </c>
@@ -1483,8 +4028,11 @@
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>20455</v>
       </c>
@@ -1508,8 +4056,11 @@
       <c r="G38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>20546</v>
       </c>
@@ -1533,8 +4084,11 @@
       <c r="G39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>20637</v>
       </c>
@@ -1558,8 +4112,11 @@
       <c r="G40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>20729</v>
       </c>
@@ -1583,8 +4140,11 @@
       <c r="G41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>20821</v>
       </c>
@@ -1608,8 +4168,11 @@
       <c r="G42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>20911</v>
       </c>
@@ -1633,8 +4196,11 @@
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>21002</v>
       </c>
@@ -1658,8 +4224,11 @@
       <c r="G44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>21094</v>
       </c>
@@ -1683,8 +4252,11 @@
       <c r="G45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>21186</v>
       </c>
@@ -1708,8 +4280,11 @@
       <c r="G46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>21276</v>
       </c>
@@ -1733,8 +4308,11 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>21367</v>
       </c>
@@ -1758,8 +4336,11 @@
       <c r="G48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>21459</v>
       </c>
@@ -1783,8 +4364,11 @@
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>21551</v>
       </c>
@@ -1808,8 +4392,11 @@
       <c r="G50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>21641</v>
       </c>
@@ -1833,8 +4420,11 @@
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>21732</v>
       </c>
@@ -1858,8 +4448,11 @@
       <c r="G52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>21824</v>
       </c>
@@ -1883,8 +4476,11 @@
       <c r="G53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>21916</v>
       </c>
@@ -1908,8 +4504,11 @@
       <c r="G54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>22007</v>
       </c>
@@ -1933,8 +4532,11 @@
       <c r="G55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>22098</v>
       </c>
@@ -1958,8 +4560,11 @@
       <c r="G56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>22190</v>
       </c>
@@ -1983,8 +4588,11 @@
       <c r="G57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>22282</v>
       </c>
@@ -2008,8 +4616,11 @@
       <c r="G58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>22372</v>
       </c>
@@ -2033,8 +4644,11 @@
       <c r="G59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>22463</v>
       </c>
@@ -2058,8 +4672,11 @@
       <c r="G60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>22555</v>
       </c>
@@ -2083,8 +4700,11 @@
       <c r="G61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>22647</v>
       </c>
@@ -2108,8 +4728,11 @@
       <c r="G62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>22737</v>
       </c>
@@ -2133,8 +4756,11 @@
       <c r="G63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>22828</v>
       </c>
@@ -2158,8 +4784,11 @@
       <c r="G64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>22920</v>
       </c>
@@ -2183,8 +4812,11 @@
       <c r="G65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>23012</v>
       </c>
@@ -2208,8 +4840,11 @@
       <c r="G66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>23102</v>
       </c>
@@ -2233,8 +4868,11 @@
       <c r="G67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>23193</v>
       </c>
@@ -2258,8 +4896,11 @@
       <c r="G68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>23285</v>
       </c>
@@ -2283,8 +4924,11 @@
       <c r="G69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>23377</v>
       </c>
@@ -2308,8 +4952,11 @@
       <c r="G70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>23468</v>
       </c>
@@ -2333,8 +4980,11 @@
       <c r="G71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>23559</v>
       </c>
@@ -2358,8 +5008,11 @@
       <c r="G72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>23651</v>
       </c>
@@ -2383,8 +5036,11 @@
       <c r="G73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>23743</v>
       </c>
@@ -2408,8 +5064,11 @@
       <c r="G74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>23833</v>
       </c>
@@ -2433,8 +5092,11 @@
       <c r="G75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>23924</v>
       </c>
@@ -2458,8 +5120,11 @@
       <c r="G76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>24016</v>
       </c>
@@ -2483,8 +5148,11 @@
       <c r="G77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>24108</v>
       </c>
@@ -2508,8 +5176,11 @@
       <c r="G78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>24198</v>
       </c>
@@ -2533,8 +5204,11 @@
       <c r="G79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>24289</v>
       </c>
@@ -2558,8 +5232,11 @@
       <c r="G80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>24381</v>
       </c>
@@ -2583,8 +5260,11 @@
       <c r="G81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>24473</v>
       </c>
@@ -2608,8 +5288,11 @@
       <c r="G82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>24563</v>
       </c>
@@ -2633,8 +5316,11 @@
       <c r="G83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>24654</v>
       </c>
@@ -2658,8 +5344,11 @@
       <c r="G84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>24746</v>
       </c>
@@ -2683,8 +5372,11 @@
       <c r="G85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>24838</v>
       </c>
@@ -2708,8 +5400,11 @@
       <c r="G86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>24929</v>
       </c>
@@ -2733,8 +5428,11 @@
       <c r="G87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>25020</v>
       </c>
@@ -2758,8 +5456,11 @@
       <c r="G88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>25112</v>
       </c>
@@ -2783,8 +5484,11 @@
       <c r="G89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>25204</v>
       </c>
@@ -2808,8 +5512,11 @@
       <c r="G90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>25294</v>
       </c>
@@ -2833,8 +5540,11 @@
       <c r="G91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>25385</v>
       </c>
@@ -2858,8 +5568,11 @@
       <c r="G92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>25477</v>
       </c>
@@ -2883,8 +5596,11 @@
       <c r="G93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>25569</v>
       </c>
@@ -2908,8 +5624,11 @@
       <c r="G94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>25659</v>
       </c>
@@ -2933,8 +5652,11 @@
       <c r="G95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>25750</v>
       </c>
@@ -2958,8 +5680,11 @@
       <c r="G96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>25842</v>
       </c>
@@ -2983,8 +5708,11 @@
       <c r="G97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>25934</v>
       </c>
@@ -3008,8 +5736,11 @@
       <c r="G98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>26024</v>
       </c>
@@ -3033,8 +5764,11 @@
       <c r="G99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>26115</v>
       </c>
@@ -3058,8 +5792,11 @@
       <c r="G100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>26207</v>
       </c>
@@ -3083,8 +5820,11 @@
       <c r="G101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>26299</v>
       </c>
@@ -3108,8 +5848,11 @@
       <c r="G102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>26390</v>
       </c>
@@ -3133,8 +5876,11 @@
       <c r="G103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>26481</v>
       </c>
@@ -3158,8 +5904,11 @@
       <c r="G104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>26573</v>
       </c>
@@ -3183,8 +5932,11 @@
       <c r="G105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>26665</v>
       </c>
@@ -3208,8 +5960,11 @@
       <c r="G106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>26755</v>
       </c>
@@ -3233,8 +5988,11 @@
       <c r="G107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>26846</v>
       </c>
@@ -3258,8 +6016,11 @@
       <c r="G108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>26938</v>
       </c>
@@ -3283,8 +6044,11 @@
       <c r="G109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>27030</v>
       </c>
@@ -3308,8 +6072,11 @@
       <c r="G110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>27120</v>
       </c>
@@ -3333,8 +6100,11 @@
       <c r="G111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>27211</v>
       </c>
@@ -3358,8 +6128,11 @@
       <c r="G112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>27303</v>
       </c>
@@ -3383,8 +6156,11 @@
       <c r="G113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>27395</v>
       </c>
@@ -3408,8 +6184,11 @@
       <c r="G114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>27485</v>
       </c>
@@ -3433,8 +6212,11 @@
       <c r="G115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>27576</v>
       </c>
@@ -3458,8 +6240,11 @@
       <c r="G116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>27668</v>
       </c>
@@ -3483,8 +6268,11 @@
       <c r="G117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>27760</v>
       </c>
@@ -3508,8 +6296,11 @@
       <c r="G118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>27851</v>
       </c>
@@ -3533,8 +6324,11 @@
       <c r="G119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>27942</v>
       </c>
@@ -3558,8 +6352,11 @@
       <c r="G120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>28034</v>
       </c>
@@ -3583,8 +6380,11 @@
       <c r="G121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>28126</v>
       </c>
@@ -3608,8 +6408,11 @@
       <c r="G122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>28216</v>
       </c>
@@ -3633,8 +6436,11 @@
       <c r="G123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>28307</v>
       </c>
@@ -3658,8 +6464,11 @@
       <c r="G124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>28399</v>
       </c>
@@ -3683,8 +6492,11 @@
       <c r="G125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>28491</v>
       </c>
@@ -3708,8 +6520,11 @@
       <c r="G126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>28581</v>
       </c>
@@ -3733,8 +6548,11 @@
       <c r="G127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>28672</v>
       </c>
@@ -3758,8 +6576,11 @@
       <c r="G128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>28764</v>
       </c>
@@ -3783,8 +6604,11 @@
       <c r="G129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>28856</v>
       </c>
@@ -3808,8 +6632,11 @@
       <c r="G130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>28946</v>
       </c>
@@ -3833,8 +6660,11 @@
       <c r="G131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>29037</v>
       </c>
@@ -3858,8 +6688,11 @@
       <c r="G132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>29129</v>
       </c>
@@ -3883,8 +6716,11 @@
       <c r="G133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>29221</v>
       </c>
@@ -3908,8 +6744,11 @@
       <c r="G134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>29312</v>
       </c>
@@ -3933,8 +6772,11 @@
       <c r="G135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>29403</v>
       </c>
@@ -3958,8 +6800,11 @@
       <c r="G136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>29495</v>
       </c>
@@ -3983,8 +6828,11 @@
       <c r="G137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>29587</v>
       </c>
@@ -4002,14 +6850,17 @@
         <v>2876.6869999999999</v>
       </c>
       <c r="F138">
-        <f t="shared" si="5"/>
+        <f>(C138/E138)*100</f>
         <v>60.4727591149124</v>
       </c>
       <c r="G138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>29677</v>
       </c>
@@ -4033,8 +6884,11 @@
       <c r="G139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>29768</v>
       </c>
@@ -4058,8 +6912,11 @@
       <c r="G140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>29860</v>
       </c>
@@ -4083,8 +6940,11 @@
       <c r="G141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>29952</v>
       </c>
@@ -4108,8 +6968,11 @@
       <c r="G142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>30042</v>
       </c>
@@ -4133,8 +6996,11 @@
       <c r="G143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>30133</v>
       </c>
@@ -4158,8 +7024,11 @@
       <c r="G144">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>30225</v>
       </c>
@@ -4183,8 +7052,11 @@
       <c r="G145">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>30317</v>
       </c>
@@ -4208,8 +7080,11 @@
       <c r="G146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>30407</v>
       </c>
@@ -4233,8 +7108,11 @@
       <c r="G147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>30498</v>
       </c>
@@ -4258,8 +7136,11 @@
       <c r="G148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>30590</v>
       </c>
@@ -4283,8 +7164,11 @@
       <c r="G149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>30682</v>
       </c>
@@ -4308,8 +7192,11 @@
       <c r="G150">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>30773</v>
       </c>
@@ -4333,8 +7220,11 @@
       <c r="G151">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>30864</v>
       </c>
@@ -4358,8 +7248,11 @@
       <c r="G152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>30956</v>
       </c>
@@ -4383,8 +7276,11 @@
       <c r="G153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>31048</v>
       </c>
@@ -4408,8 +7304,11 @@
       <c r="G154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>31138</v>
       </c>
@@ -4433,8 +7332,11 @@
       <c r="G155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>31229</v>
       </c>
@@ -4458,8 +7360,11 @@
       <c r="G156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>31321</v>
       </c>
@@ -4483,8 +7388,11 @@
       <c r="G157">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>31413</v>
       </c>
@@ -4508,8 +7416,11 @@
       <c r="G158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>31503</v>
       </c>
@@ -4533,8 +7444,11 @@
       <c r="G159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>31594</v>
       </c>
@@ -4558,8 +7472,11 @@
       <c r="G160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>31686</v>
       </c>
@@ -4583,8 +7500,11 @@
       <c r="G161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>31778</v>
       </c>
@@ -4608,8 +7528,11 @@
       <c r="G162">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>31868</v>
       </c>
@@ -4633,8 +7556,11 @@
       <c r="G163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>31959</v>
       </c>
@@ -4658,8 +7584,11 @@
       <c r="G164">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>32051</v>
       </c>
@@ -4683,8 +7612,11 @@
       <c r="G165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>32143</v>
       </c>
@@ -4708,8 +7640,11 @@
       <c r="G166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>32234</v>
       </c>
@@ -4733,8 +7668,11 @@
       <c r="G167">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>32325</v>
       </c>
@@ -4758,8 +7696,11 @@
       <c r="G168">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>32417</v>
       </c>
@@ -4783,8 +7724,11 @@
       <c r="G169">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>32509</v>
       </c>
@@ -4808,8 +7752,11 @@
       <c r="G170">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>32599</v>
       </c>
@@ -4833,8 +7780,11 @@
       <c r="G171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>32690</v>
       </c>
@@ -4858,8 +7808,11 @@
       <c r="G172">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>32782</v>
       </c>
@@ -4883,8 +7836,11 @@
       <c r="G173">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>32874</v>
       </c>
@@ -4908,8 +7864,11 @@
       <c r="G174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>32964</v>
       </c>
@@ -4933,8 +7892,11 @@
       <c r="G175">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>33055</v>
       </c>
@@ -4958,8 +7920,11 @@
       <c r="G176">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>33147</v>
       </c>
@@ -4983,8 +7948,11 @@
       <c r="G177">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>33239</v>
       </c>
@@ -5008,8 +7976,11 @@
       <c r="G178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>33329</v>
       </c>
@@ -5033,8 +8004,11 @@
       <c r="G179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>33420</v>
       </c>
@@ -5058,8 +8032,11 @@
       <c r="G180">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>33512</v>
       </c>
@@ -5083,8 +8060,11 @@
       <c r="G181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>33604</v>
       </c>
@@ -5108,8 +8088,11 @@
       <c r="G182">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>33695</v>
       </c>
@@ -5133,8 +8116,11 @@
       <c r="G183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>33786</v>
       </c>
@@ -5158,8 +8144,11 @@
       <c r="G184">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>33878</v>
       </c>
@@ -5183,8 +8172,11 @@
       <c r="G185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>33970</v>
       </c>
@@ -5208,8 +8200,11 @@
       <c r="G186">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>34060</v>
       </c>
@@ -5233,8 +8228,11 @@
       <c r="G187">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>34151</v>
       </c>
@@ -5258,8 +8256,11 @@
       <c r="G188">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>34243</v>
       </c>
@@ -5283,8 +8284,11 @@
       <c r="G189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>34335</v>
       </c>
@@ -5308,8 +8312,11 @@
       <c r="G190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>34425</v>
       </c>
@@ -5333,8 +8340,11 @@
       <c r="G191">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>34516</v>
       </c>
@@ -5358,8 +8368,11 @@
       <c r="G192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>34608</v>
       </c>
@@ -5383,8 +8396,11 @@
       <c r="G193">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>34700</v>
       </c>
@@ -5408,8 +8424,11 @@
       <c r="G194">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>34790</v>
       </c>
@@ -5433,8 +8452,11 @@
       <c r="G195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>34881</v>
       </c>
@@ -5458,8 +8480,11 @@
       <c r="G196">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>34973</v>
       </c>
@@ -5483,8 +8508,11 @@
       <c r="G197">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>35065</v>
       </c>
@@ -5508,8 +8536,11 @@
       <c r="G198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>35156</v>
       </c>
@@ -5533,8 +8564,11 @@
       <c r="G199">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>35247</v>
       </c>
@@ -5558,8 +8592,11 @@
       <c r="G200">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>35339</v>
       </c>
@@ -5583,8 +8620,11 @@
       <c r="G201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>35431</v>
       </c>
@@ -5608,8 +8648,11 @@
       <c r="G202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>35521</v>
       </c>
@@ -5633,8 +8676,11 @@
       <c r="G203">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>35612</v>
       </c>
@@ -5658,8 +8704,11 @@
       <c r="G204">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>35704</v>
       </c>
@@ -5683,8 +8732,11 @@
       <c r="G205">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>35796</v>
       </c>
@@ -5708,8 +8760,11 @@
       <c r="G206">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>35886</v>
       </c>
@@ -5733,8 +8788,11 @@
       <c r="G207">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>35977</v>
       </c>
@@ -5758,8 +8816,11 @@
       <c r="G208">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>36069</v>
       </c>
@@ -5783,8 +8844,11 @@
       <c r="G209">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>36161</v>
       </c>
@@ -5808,8 +8872,11 @@
       <c r="G210">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>36251</v>
       </c>
@@ -5833,8 +8900,11 @@
       <c r="G211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>36342</v>
       </c>
@@ -5858,8 +8928,11 @@
       <c r="G212">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>36434</v>
       </c>
@@ -5883,8 +8956,11 @@
       <c r="G213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>36526</v>
       </c>
@@ -5908,8 +8984,11 @@
       <c r="G214">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>36617</v>
       </c>
@@ -5933,8 +9012,11 @@
       <c r="G215">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>36708</v>
       </c>
@@ -5958,8 +9040,11 @@
       <c r="G216">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>36800</v>
       </c>
@@ -5983,8 +9068,11 @@
       <c r="G217">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>36892</v>
       </c>
@@ -6008,8 +9096,11 @@
       <c r="G218">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>36982</v>
       </c>
@@ -6033,8 +9124,11 @@
       <c r="G219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>37073</v>
       </c>
@@ -6058,8 +9152,11 @@
       <c r="G220">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>37165</v>
       </c>
@@ -6083,8 +9180,11 @@
       <c r="G221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>37257</v>
       </c>
@@ -6108,8 +9208,11 @@
       <c r="G222">
         <v>2</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>37347</v>
       </c>
@@ -6133,8 +9236,11 @@
       <c r="G223">
         <v>2</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>37438</v>
       </c>
@@ -6158,8 +9264,11 @@
       <c r="G224">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>37530</v>
       </c>
@@ -6183,8 +9292,11 @@
       <c r="G225">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>37622</v>
       </c>
@@ -6208,8 +9320,11 @@
       <c r="G226">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>37712</v>
       </c>
@@ -6233,8 +9348,11 @@
       <c r="G227">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>37803</v>
       </c>
@@ -6258,8 +9376,11 @@
       <c r="G228">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>37895</v>
       </c>
@@ -6283,8 +9404,11 @@
       <c r="G229">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>37987</v>
       </c>
@@ -6302,14 +9426,17 @@
         <v>10969.44</v>
       </c>
       <c r="F230">
-        <f t="shared" si="7"/>
+        <f>(C230/E230)*100</f>
         <v>59.632105194066419</v>
       </c>
       <c r="G230">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>38078</v>
       </c>
@@ -6333,8 +9460,11 @@
       <c r="G231">
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>38169</v>
       </c>
@@ -6358,8 +9488,11 @@
       <c r="G232">
         <v>3</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>38261</v>
       </c>
@@ -6383,8 +9516,11 @@
       <c r="G233">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>38353</v>
       </c>
@@ -6408,8 +9544,11 @@
       <c r="G234">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>38443</v>
       </c>
@@ -6433,8 +9572,11 @@
       <c r="G235">
         <v>3</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>38534</v>
       </c>
@@ -6458,8 +9600,11 @@
       <c r="G236">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>38626</v>
       </c>
@@ -6483,8 +9628,11 @@
       <c r="G237">
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>38718</v>
       </c>
@@ -6508,8 +9656,11 @@
       <c r="G238">
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>38808</v>
       </c>
@@ -6533,8 +9684,11 @@
       <c r="G239">
         <v>3</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>38899</v>
       </c>
@@ -6558,8 +9712,11 @@
       <c r="G240">
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>38991</v>
       </c>
@@ -6583,8 +9740,11 @@
       <c r="G241">
         <v>3</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>39083</v>
       </c>
@@ -6608,8 +9768,11 @@
       <c r="G242">
         <v>3</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>39173</v>
       </c>
@@ -6633,8 +9796,11 @@
       <c r="G243">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>39264</v>
       </c>
@@ -6658,8 +9824,11 @@
       <c r="G244">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>39356</v>
       </c>
@@ -6683,8 +9852,11 @@
       <c r="G245">
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39448</v>
       </c>
@@ -6708,8 +9880,11 @@
       <c r="G246">
         <v>3</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39539</v>
       </c>
@@ -6733,8 +9908,11 @@
       <c r="G247">
         <v>3</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39630</v>
       </c>
@@ -6758,8 +9936,11 @@
       <c r="G248">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39722</v>
       </c>
@@ -6783,8 +9964,11 @@
       <c r="G249">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
@@ -6808,8 +9992,11 @@
       <c r="G250">
         <v>3</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39904</v>
       </c>
@@ -6833,8 +10020,11 @@
       <c r="G251">
         <v>3</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39995</v>
       </c>
@@ -6858,8 +10048,11 @@
       <c r="G252">
         <v>3</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>40087</v>
       </c>
@@ -6883,8 +10076,11 @@
       <c r="G253">
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>40179</v>
       </c>
@@ -6908,8 +10104,11 @@
       <c r="G254">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>40269</v>
       </c>
@@ -6933,8 +10132,11 @@
       <c r="G255">
         <v>3</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>40360</v>
       </c>
@@ -6958,8 +10160,11 @@
       <c r="G256">
         <v>3</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40452</v>
       </c>
@@ -6983,8 +10188,11 @@
       <c r="G257">
         <v>3</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40544</v>
       </c>
@@ -6998,18 +10206,21 @@
         <v>15358.947</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">D258 - B258</f>
+        <f t="shared" ref="E258:E313" si="8">D258 - B258</f>
         <v>14177.74</v>
       </c>
       <c r="F258">
-        <f t="shared" ref="F258:F321" si="9">(C258/E258)*100</f>
+        <f t="shared" ref="F258:F313" si="9">(C258/E258)*100</f>
         <v>57.626151981909665</v>
       </c>
       <c r="G258">
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40634</v>
       </c>
@@ -7033,8 +10244,11 @@
       <c r="G259">
         <v>3</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40725</v>
       </c>
@@ -7058,8 +10272,11 @@
       <c r="G260">
         <v>3</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40817</v>
       </c>
@@ -7083,8 +10300,11 @@
       <c r="G261">
         <v>3</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40909</v>
       </c>
@@ -7108,8 +10328,11 @@
       <c r="G262">
         <v>3</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>41000</v>
       </c>
@@ -7133,8 +10356,11 @@
       <c r="G263">
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>41091</v>
       </c>
@@ -7158,8 +10384,11 @@
       <c r="G264">
         <v>3</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>41183</v>
       </c>
@@ -7183,8 +10412,11 @@
       <c r="G265">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>41275</v>
       </c>
@@ -7208,8 +10440,11 @@
       <c r="G266">
         <v>3</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>41365</v>
       </c>
@@ -7233,8 +10468,11 @@
       <c r="G267">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>41456</v>
       </c>
@@ -7258,8 +10496,11 @@
       <c r="G268">
         <v>3</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>41548</v>
       </c>
@@ -7283,8 +10524,11 @@
       <c r="G269">
         <v>3</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>41640</v>
       </c>
@@ -7308,8 +10552,11 @@
       <c r="G270">
         <v>3</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>41730</v>
       </c>
@@ -7333,8 +10580,11 @@
       <c r="G271">
         <v>3</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>41821</v>
       </c>
@@ -7358,8 +10608,11 @@
       <c r="G272">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>41913</v>
       </c>
@@ -7383,8 +10636,11 @@
       <c r="G273">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>42005</v>
       </c>
@@ -7408,8 +10664,11 @@
       <c r="G274">
         <v>3</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>42095</v>
       </c>
@@ -7433,8 +10692,11 @@
       <c r="G275">
         <v>3</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>42186</v>
       </c>
@@ -7458,8 +10720,11 @@
       <c r="G276">
         <v>3</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>42278</v>
       </c>
@@ -7483,8 +10748,11 @@
       <c r="G277">
         <v>3</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>42370</v>
       </c>
@@ -7508,8 +10776,11 @@
       <c r="G278">
         <v>3</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>42461</v>
       </c>
@@ -7533,8 +10804,11 @@
       <c r="G279">
         <v>3</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>42552</v>
       </c>
@@ -7558,8 +10832,11 @@
       <c r="G280">
         <v>3</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>42644</v>
       </c>
@@ -7583,8 +10860,11 @@
       <c r="G281">
         <v>3</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>42736</v>
       </c>
@@ -7608,8 +10888,11 @@
       <c r="G282">
         <v>3</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>42826</v>
       </c>
@@ -7633,8 +10916,11 @@
       <c r="G283">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>42917</v>
       </c>
@@ -7658,8 +10944,11 @@
       <c r="G284">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>43009</v>
       </c>
@@ -7683,8 +10972,11 @@
       <c r="G285">
         <v>3</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>43101</v>
       </c>
@@ -7708,8 +11000,11 @@
       <c r="G286">
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>43191</v>
       </c>
@@ -7733,8 +11028,11 @@
       <c r="G287">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>43282</v>
       </c>
@@ -7758,8 +11056,11 @@
       <c r="G288">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>43374</v>
       </c>
@@ -7783,8 +11084,11 @@
       <c r="G289">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>43466</v>
       </c>
@@ -7808,8 +11112,11 @@
       <c r="G290">
         <v>3</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>43556</v>
       </c>
@@ -7833,8 +11140,11 @@
       <c r="G291">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>43647</v>
       </c>
@@ -7858,8 +11168,11 @@
       <c r="G292">
         <v>3</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>43739</v>
       </c>
@@ -7883,8 +11196,11 @@
       <c r="G293">
         <v>3</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>43831</v>
       </c>
@@ -7908,8 +11224,11 @@
       <c r="G294">
         <v>3</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>43922</v>
       </c>
@@ -7933,8 +11252,11 @@
       <c r="G295">
         <v>3</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44013</v>
       </c>
@@ -7958,8 +11280,11 @@
       <c r="G296">
         <v>3</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44105</v>
       </c>
@@ -7983,8 +11308,11 @@
       <c r="G297">
         <v>3</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44197</v>
       </c>
@@ -8008,8 +11336,11 @@
       <c r="G298">
         <v>3</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44287</v>
       </c>
@@ -8033,8 +11364,11 @@
       <c r="G299">
         <v>3</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44378</v>
       </c>
@@ -8058,8 +11392,11 @@
       <c r="G300">
         <v>3</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44470</v>
       </c>
@@ -8083,8 +11420,11 @@
       <c r="G301">
         <v>3</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44562</v>
       </c>
@@ -8108,8 +11448,11 @@
       <c r="G302">
         <v>3</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44652</v>
       </c>
@@ -8133,8 +11476,11 @@
       <c r="G303">
         <v>3</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44743</v>
       </c>
@@ -8158,6 +11504,9 @@
       <c r="G304">
         <v>3</v>
       </c>
+      <c r="H304">
+        <v>303</v>
+      </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
@@ -8183,6 +11532,9 @@
       <c r="G305">
         <v>3</v>
       </c>
+      <c r="H305">
+        <v>304</v>
+      </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
@@ -8208,6 +11560,9 @@
       <c r="G306">
         <v>3</v>
       </c>
+      <c r="H306">
+        <v>305</v>
+      </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
@@ -8233,6 +11588,9 @@
       <c r="G307">
         <v>3</v>
       </c>
+      <c r="H307">
+        <v>306</v>
+      </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
@@ -8258,6 +11616,9 @@
       <c r="G308">
         <v>3</v>
       </c>
+      <c r="H308">
+        <v>307</v>
+      </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
@@ -8283,6 +11644,9 @@
       <c r="G309">
         <v>3</v>
       </c>
+      <c r="H309">
+        <v>308</v>
+      </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
@@ -8308,6 +11672,9 @@
       <c r="G310">
         <v>3</v>
       </c>
+      <c r="H310">
+        <v>309</v>
+      </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
@@ -8333,6 +11700,9 @@
       <c r="G311">
         <v>3</v>
       </c>
+      <c r="H311">
+        <v>310</v>
+      </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
@@ -8358,6 +11728,9 @@
       <c r="G312">
         <v>3</v>
       </c>
+      <c r="H312">
+        <v>311</v>
+      </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
@@ -8382,6 +11755,9 @@
       </c>
       <c r="G313">
         <v>3</v>
+      </c>
+      <c r="H313">
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
@@ -8796,13 +12172,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344BF6B1-9640-0340-9B5E-F6A7E1BE7543}">
   <dimension ref="A1:B313"/>
   <sheetViews>
@@ -11326,7 +14703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2266188D-0FE6-9347-9D44-11ED50695ED3}">
   <dimension ref="A1:B313"/>
   <sheetViews>
@@ -13850,7 +17227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D0C36D-069D-614F-8EA2-CCB09D14FEAB}">
   <dimension ref="A1"/>
   <sheetViews>
